--- a/assets/Python/Work Particulars.xlsx
+++ b/assets/Python/Work Particulars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4141C1-4E3B-4D9F-A0E1-D601DA24649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BF6289-BD9C-41ED-AA98-1FF870054BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
   <si>
     <t>Work Particulars</t>
   </si>
@@ -72,24 +72,6 @@
     <t>Wet Mix Macadam</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Bookman Old Style"/>
-      </rPr>
-      <t xml:space="preserve">Widening portion - 250   Center portion 150 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Bookman Old Style"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Prime coat over WMM </t>
   </si>
   <si>
@@ -139,12 +121,6 @@
   </si>
   <si>
     <t>Wearing coat  over deck slab and over approach slab</t>
-  </si>
-  <si>
-    <t>VCC M30 (25mm,12mm,6mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thickness-75mm </t>
   </si>
   <si>
     <t>Supply and fabrication of Steel</t>
@@ -326,15 +302,6 @@
     </r>
   </si>
   <si>
-    <t>Unit rate</t>
-  </si>
-  <si>
-    <t>Depth - 375</t>
-  </si>
-  <si>
-    <t>Depth - 175</t>
-  </si>
-  <si>
     <t>0.70 kg/sqm
 (SS-I type)</t>
   </si>
@@ -485,16 +452,49 @@
     <t>Refilling the excavated earth for forming berms</t>
   </si>
   <si>
-    <t>Depth - 425</t>
-  </si>
-  <si>
-    <t>Depth - 225</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>Depth - 100 mm</t>
+  </si>
+  <si>
+    <t>Depth - 375 mm</t>
+  </si>
+  <si>
+    <t>Depth - 175 mm</t>
+  </si>
+  <si>
+    <t>Widening portion - 250 mm   Center portion 150 mm</t>
+  </si>
+  <si>
+    <t>50 mm thick (Viscosity Grade- 30)</t>
+  </si>
+  <si>
+    <t>30 mm thick (Viscosity Grade- 30)</t>
+  </si>
+  <si>
+    <t>150 mm thick</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Box culvetts -2 nos</t>
+  </si>
+  <si>
+    <t>Depth - 150 mm</t>
+  </si>
+  <si>
+    <t>75 mm thick (VCC M30)</t>
+  </si>
+  <si>
+    <t>Depth - 425 mm</t>
+  </si>
+  <si>
+    <t>Depth - 225 mm</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -622,24 +622,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -661,7 +648,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -715,21 +701,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,20 +720,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1047,106 +1042,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>80</v>
+      <c r="G7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="41.25" customHeight="1">
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5"/>
@@ -1158,9 +1153,9 @@
         <v>333.67</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="22">
+        <v>45</v>
+      </c>
+      <c r="H8" s="21">
         <f>(D8*F8)</f>
         <v>6630.0229000000008</v>
       </c>
@@ -1169,23 +1164,23 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
         <v>1990.21</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>100.1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="22">
+        <v>46</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" ref="H9:H18" si="0">(D9*F9)</f>
         <v>199220.02099999998</v>
       </c>
@@ -1194,23 +1189,23 @@
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
         <v>7627.76</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="12">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
         <v>43.11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="22">
+        <v>46</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>328832.73359999998</v>
       </c>
@@ -1219,23 +1214,23 @@
       <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11">
         <v>75.03</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1001</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="22">
+        <v>45</v>
+      </c>
+      <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>75105.03</v>
       </c>
@@ -1245,47 +1240,47 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="5">
         <v>16.78</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12">
+      <c r="E12" s="15"/>
+      <c r="F12" s="11">
         <v>1001</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="22">
+        <v>45</v>
+      </c>
+      <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>16796.780000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="5">
         <v>24.18</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <v>69815.25</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="22">
+        <v>45</v>
+      </c>
+      <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>1688132.7449999999</v>
       </c>
@@ -1294,25 +1289,25 @@
       <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="11">
+        <v>8036.7</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12">
-        <v>8036.7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>160.65</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="22">
+        <v>46</v>
+      </c>
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>1291095.855</v>
       </c>
@@ -1321,25 +1316,25 @@
       <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11">
         <v>10247.799999999999</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="12">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11">
         <v>2124.4899999999998</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="22">
+        <v>46</v>
+      </c>
+      <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>21771348.621999998</v>
       </c>
@@ -1348,23 +1343,23 @@
       <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
         <v>182.37</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="12">
+        <v>23</v>
+      </c>
+      <c r="F16" s="11">
         <v>3185.28</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="22">
+        <v>46</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>580899.51360000006</v>
       </c>
@@ -1373,23 +1368,23 @@
       <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="B17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11">
         <v>906</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="22">
+        <v>51</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>7248</v>
       </c>
@@ -1398,23 +1393,23 @@
       <c r="A18" s="5">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11">
         <v>256</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>36</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="22">
+        <v>51</v>
+      </c>
+      <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>9216</v>
       </c>
@@ -1427,7 +1422,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
@@ -2173,103 +2168,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="35" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="37" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="30">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -2280,990 +2266,828 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8">
+        <v>670.82</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6">
         <v>112.05</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="8">
-        <v>670.82</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="22">
-        <f>D9*F9</f>
-        <v>75165.381000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
+      <c r="G9" s="37">
+        <f>ROUND(F9*D9,0)</f>
+        <v>75165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D10" s="11">
+        <v>174.26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10">
         <v>1732.29</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12">
-        <v>174.26</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="22">
-        <f t="shared" ref="H10:H19" si="0">D10*F10</f>
-        <v>301868.8554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
+      <c r="G10" s="37">
+        <f t="shared" ref="G10:G21" si="0">ROUND(F10*D10,0)</f>
+        <v>301869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="C11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11">
+        <v>304.97000000000003</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12">
         <v>1636.89</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="12">
-        <v>304.97000000000003</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>499202.34330000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30">
+        <v>499202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11">
+        <v>414.91</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="12">
         <v>19.87</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12">
-        <v>414.91</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>8244.2617000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11">
+        <v>995.8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6">
         <v>1990.21</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="G13" s="37">
+        <f t="shared" si="0"/>
+        <v>1981851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="11">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12">
-        <v>995.8</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5476.9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11">
+        <v>75.02</v>
+      </c>
+      <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>1981851.118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="12">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="12">
-        <v>75.02</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>5476.9</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="0"/>
-        <v>410877.03799999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45">
+        <v>410877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5476.9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="14">
         <v>16.77</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12">
-        <v>5476.9</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>91847.612999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
+        <v>91848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="11">
+        <v>273.83999999999997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="14">
         <v>8036.7</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="12">
-        <v>273.83999999999997</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>2200769.9279999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
+        <v>2200770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="11">
+        <v>164.3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="14">
         <v>10247.799999999999</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="12">
-        <v>164.3</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>1683713.54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30">
+        <v>1683714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15">
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="11">
+        <v>1224.58</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="14">
         <v>182.37</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12">
-        <v>1224.58</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="22">
+      <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>223326.65459999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45">
+        <v>223327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45">
       <c r="A19" s="5">
         <v>11</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="11">
+        <v>294</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="14">
         <v>25.36</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="12">
-        <v>294</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="22">
+      <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>7455.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>7456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="B20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="11">
         <v>906</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="12">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="22">
-        <f t="shared" ref="H20:H21" si="1">(D20*F20)</f>
+      <c r="G20" s="37">
+        <f t="shared" si="0"/>
         <v>1812</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" s="5">
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="11">
         <v>256</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12">
-        <v>4</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="22">
-        <f t="shared" si="1"/>
+      <c r="G21" s="37">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8">
+    <row r="22" spans="1:7">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="43">
+        <v>2131118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="G23" s="38">
+        <f>SUM(G9:G22)</f>
+        <v>9618277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0" footer="0"/>
@@ -3276,10 +3100,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3287,1011 +3111,843 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" customHeight="1">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24">
+        <v>15.66</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="23">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="G10" s="37">
+        <f>ROUND(F10*D10,0)</f>
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26">
+        <v>561.21</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="26">
+        <v>182.37</v>
+      </c>
+      <c r="G11" s="37">
+        <f>ROUND(F11*D11,0)</f>
+        <v>102348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="26">
+        <v>50.62</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1636.89</v>
+      </c>
+      <c r="G12" s="37">
+        <f>ROUND(F12*D12,0)</f>
+        <v>82859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" customHeight="1">
+      <c r="A13" s="34">
+        <v>4</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="37">
+        <f>ROUND(F13*D13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
+        <v>145.59</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="44">
+        <v>263.05</v>
+      </c>
+      <c r="G14" s="37">
+        <f>ROUND(F14*D14,0)</f>
+        <v>38297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
+        <v>145.59</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="45">
+        <v>263.05</v>
+      </c>
+      <c r="G15" s="37">
+        <f>ROUND(F15*D15,0)</f>
+        <v>38297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A16" s="23">
+        <v>5</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="C16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="26">
+        <v>16.04</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5879.79</v>
+      </c>
+      <c r="G16" s="37">
+        <f>ROUND(F16*D16,0)</f>
+        <v>94312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="64.5" customHeight="1">
+      <c r="A17" s="26">
+        <v>6</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="C17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="26">
+        <v>84.34</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="26">
+        <v>8006.5</v>
+      </c>
+      <c r="G17" s="37">
+        <f>ROUND(F17*D17,0)</f>
+        <v>675268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57" customHeight="1">
+      <c r="A18" s="23">
+        <v>7</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1">
-      <c r="A10" s="24">
-        <v>1</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="C18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="26">
+        <v>55.64</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="26">
+        <v>11985</v>
+      </c>
+      <c r="G18" s="37">
+        <f>ROUND(F18*D18,0)</f>
+        <v>666845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="70.5" customHeight="1">
+      <c r="A19" s="23">
+        <v>9</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="26">
+        <v>38.22</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="26">
+        <v>604.37</v>
+      </c>
+      <c r="G19" s="37">
+        <f>ROUND(F19*D19,0)</f>
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A20" s="23">
+        <v>10</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="23">
+        <v>4.28</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25">
-        <v>15.66</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="22">
-        <f>D10*F10</f>
-        <v>4030.8839999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A11" s="24">
-        <v>2</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27">
-        <v>182.37</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27">
-        <v>561.21</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" ref="H11:H20" si="0">D11*F11</f>
-        <v>102347.8677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A12" s="24">
-        <v>3</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27">
-        <v>1636.89</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="27">
-        <v>50.62</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" si="0"/>
-        <v>82859.371800000008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="78" customHeight="1">
-      <c r="A13" s="40">
-        <v>4</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="38">
-        <v>263.05</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="27">
-        <v>145.59</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="22">
-        <f>D14*F14</f>
-        <v>38297.449500000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="27">
-        <v>145.59</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="22">
-        <f>D14*F15</f>
-        <v>38297.449500000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A16" s="24">
-        <v>5</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="24">
-        <v>5879.79</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27">
-        <v>16.04</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="22">
-        <f t="shared" si="0"/>
-        <v>94311.83159999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A17" s="27">
-        <v>6</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="27">
-        <v>8006.5</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
-        <v>84.34</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="22">
-        <f t="shared" si="0"/>
-        <v>675268.21000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57" customHeight="1">
-      <c r="A18" s="24">
-        <v>7</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="27">
-        <v>11985</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="27">
-        <v>55.64</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="22">
-        <f t="shared" si="0"/>
-        <v>666845.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="70.5" customHeight="1">
-      <c r="A19" s="24">
-        <v>9</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27">
-        <v>604.37</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="27">
-        <v>38.22</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" si="0"/>
-        <v>23099.021399999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A20" s="24">
-        <v>10</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24">
+      <c r="F20" s="23">
         <v>94804.27</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="24">
-        <v>4.28</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="37">
+        <f>ROUND(F20*D20,0)</f>
+        <v>405762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="22">
-        <f t="shared" si="0"/>
-        <v>405762.27560000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="G21" s="38">
+        <f>SUM(G10:G20)</f>
+        <v>2131118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="33"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="33"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="33"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="33"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="33"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="33"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="33"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="33"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="33"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="33"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="33"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="33"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="33"/>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="33"/>
-    </row>
-    <row r="56" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" ht="13.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="33"/>
-    </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="33"/>
-    </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="33"/>
-    </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="33"/>
-    </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.5" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.5" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="33"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="1:4" ht="13.5" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="33"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="33"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="33"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="1:4" ht="13.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="33"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="33"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="1:4" ht="13.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="33"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="33"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="33"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="33"/>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="33"/>
-    </row>
-    <row r="78" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="33"/>
-    </row>
-    <row r="79" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" ht="13.5" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="33"/>
-    </row>
-    <row r="80" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="1:4" ht="13.5" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="33"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81" spans="1:4" ht="13.5" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="33"/>
-    </row>
-    <row r="82" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="1:4" ht="13.5" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="33"/>
-    </row>
-    <row r="83" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D82" s="30"/>
+    </row>
+    <row r="83" spans="1:4" ht="13.5" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="33"/>
-    </row>
-    <row r="84" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84" spans="1:4" ht="13.5" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="33"/>
-    </row>
-    <row r="85" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="1:4" ht="13.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="33"/>
-    </row>
-    <row r="86" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86" spans="1:4" ht="13.5" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="33"/>
-    </row>
-    <row r="87" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87" spans="1:4" ht="13.5" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="33"/>
-    </row>
-    <row r="88" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88" spans="1:4" ht="13.5" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="33"/>
-    </row>
-    <row r="89" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89" spans="1:4" ht="13.5" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="33"/>
-    </row>
-    <row r="90" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90" spans="1:4" ht="13.5" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D90" s="30"/>
+    </row>
+    <row r="91" spans="1:4" ht="13.5" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="33"/>
-    </row>
-    <row r="92" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D91" s="30"/>
+    </row>
+    <row r="92" spans="1:4" ht="13.5" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="33"/>
-    </row>
-    <row r="93" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D92" s="30"/>
+    </row>
+    <row r="93" spans="1:4" ht="13.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="33"/>
-    </row>
-    <row r="94" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D93" s="30"/>
+    </row>
+    <row r="94" spans="1:4" ht="13.5" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="33"/>
-    </row>
-    <row r="95" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D94" s="30"/>
+    </row>
+    <row r="95" spans="1:4" ht="13.5" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="33"/>
-    </row>
-    <row r="96" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96" spans="1:4" ht="13.5" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="33"/>
-    </row>
-    <row r="97" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D96" s="30"/>
+    </row>
+    <row r="97" spans="1:4" ht="13.5" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="33"/>
+      <c r="D97" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="D14:D15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A21:F24"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="84" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -4300,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4311,90 +3967,81 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A4" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="33" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="39" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -4405,1017 +4052,839 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1">
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21">
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1521.97</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="20">
         <v>112.05</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1521.97</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="34">
-        <f>D9*F9</f>
-        <v>170536.73850000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45.75" customHeight="1">
+      <c r="G9" s="8">
+        <f>ROUND(F9*D9,0)</f>
+        <v>170537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45.75" customHeight="1">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15">
+      <c r="C10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11">
+        <v>348.15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="14">
         <v>1679.49</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12">
-        <v>348.15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="34">
-        <f t="shared" ref="H10:H20" si="0">D10*F10</f>
-        <v>584714.44349999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" customHeight="1">
+      <c r="G10" s="8">
+        <f>ROUND(F10*D10,0)</f>
+        <v>584714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" customHeight="1">
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15">
+      <c r="C11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="11">
+        <v>783.37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="14">
         <v>1584.09</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="12">
-        <v>783.37</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="34">
-        <f t="shared" si="0"/>
-        <v>1240928.5833000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45.75" customHeight="1">
+      <c r="G11" s="8">
+        <f>ROUND(F11*D11,0)</f>
+        <v>1240929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45.75" customHeight="1">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11">
+        <v>828.96</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14">
         <v>19.87</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12">
-        <v>828.96</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="34">
-        <f t="shared" si="0"/>
-        <v>16471.4352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1">
+      <c r="G12" s="8">
+        <f>ROUND(F12*D12,0)</f>
+        <v>16471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="58.5" customHeight="1">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="21">
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1989.5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="20">
         <v>1990.21</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="G13" s="8">
+        <f>ROUND(F13*D13,0)</f>
+        <v>3959523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A14" s="11">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12">
-        <v>1989.5</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="34">
-        <f t="shared" si="0"/>
-        <v>3959522.7949999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11">
+        <v>10942.25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11">
         <v>75.02</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>10942.25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="34">
-        <f t="shared" si="0"/>
-        <v>820887.59499999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1">
+      <c r="G14" s="8">
+        <f>ROUND(F14*D14,0)</f>
+        <v>820888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10942.25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="14">
         <v>16.77</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12">
-        <v>10942.25</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="34">
-        <f t="shared" si="0"/>
-        <v>183501.5325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="57" customHeight="1">
+      <c r="G15" s="8">
+        <f>ROUND(F15*D15,0)</f>
+        <v>183502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="11">
+        <v>57.75</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14">
         <v>24.18</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="12">
-        <v>57.75</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="34">
-        <f t="shared" si="0"/>
-        <v>1396.395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="51.75" customHeight="1">
+      <c r="G16" s="8">
+        <f>ROUND(F16*D16,0)</f>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51.75" customHeight="1">
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11">
+        <v>550</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="14">
         <v>8036.7</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="12">
-        <v>550</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="34">
-        <f t="shared" si="0"/>
+      <c r="G17" s="8">
+        <f>ROUND(F17*D17,0)</f>
         <v>4420185</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.75" customHeight="1">
+    <row r="18" spans="1:7" ht="39.75" customHeight="1">
       <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11">
+        <v>330</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="14">
         <v>10247.799999999999</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="12">
-        <v>330</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="34">
-        <f t="shared" si="0"/>
-        <v>3381773.9999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="53.25" customHeight="1">
+      <c r="G18" s="8">
+        <f>ROUND(F18*D18,0)</f>
+        <v>3381774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="53.25" customHeight="1">
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11">
+        <v>1575.83</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="14">
         <v>182.37</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="12">
-        <v>1575.83</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="34">
-        <f t="shared" si="0"/>
-        <v>287384.11709999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="81.75" customHeight="1">
+      <c r="G19" s="8">
+        <f>ROUND(F19*D19,0)</f>
+        <v>287384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="81.75" customHeight="1">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="11">
+        <v>498</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="14">
         <v>25.36</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="12">
-        <v>498</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="34">
-        <f t="shared" si="0"/>
-        <v>12629.279999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="39.75" customHeight="1">
+      <c r="G20" s="8">
+        <f>ROUND(F20*D20,0)</f>
+        <v>12629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39.75" customHeight="1">
       <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="B21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="11">
         <v>906</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12">
-        <v>3</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="34">
-        <f t="shared" ref="H21:H22" si="1">(D21*F21)</f>
+      <c r="G21" s="8">
+        <f>ROUND(F21*D21,0)</f>
         <v>2718</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="48" customHeight="1">
+    <row r="22" spans="1:7" ht="48" customHeight="1">
       <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="B22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="11">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="11">
         <v>256</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="12">
-        <v>8</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="34">
-        <f t="shared" si="1"/>
+      <c r="G22" s="8">
+        <f>ROUND(F22*D22,0)</f>
         <v>2048</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D23" s="1"/>
+      <c r="G23" s="8">
+        <f>SUM(G9:G22)</f>
+        <v>15084698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="13.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.5" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.5" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="13.5" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="13.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="13.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="13.5" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="13.5" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="13.5" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="13.5" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="13.5" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="13.5" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" ht="13.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="13.5" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="13.5" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="13.5" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="13.5" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="13.5" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="13.5" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="13.5" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="13.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="13.5" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="13.5" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="13.5" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="13.5" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="13.5" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="13.5" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="13.5" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="13.5" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" ht="13.5" customHeight="1">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="13.5" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="D102" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
